--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.211139333333333</v>
+        <v>4.682284333333333</v>
       </c>
       <c r="H2">
-        <v>9.633417999999999</v>
+        <v>14.046853</v>
       </c>
       <c r="I2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="J2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.036035</v>
+        <v>0.173461</v>
       </c>
       <c r="N2">
-        <v>0.108105</v>
+        <v>0.520383</v>
       </c>
       <c r="O2">
-        <v>0.0661331398574747</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P2">
-        <v>0.06613313985747468</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q2">
-        <v>0.1157134058766666</v>
+        <v>0.8121937227443332</v>
       </c>
       <c r="R2">
-        <v>1.04142065289</v>
+        <v>7.309743504699</v>
       </c>
       <c r="S2">
-        <v>0.008792949388115636</v>
+        <v>0.03812544723785359</v>
       </c>
       <c r="T2">
-        <v>0.008792949388115633</v>
+        <v>0.0381254472378536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.211139333333333</v>
+        <v>4.682284333333333</v>
       </c>
       <c r="H3">
-        <v>9.633417999999999</v>
+        <v>14.046853</v>
       </c>
       <c r="I3">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="J3">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.471133</v>
       </c>
       <c r="O3">
-        <v>0.8999643350256354</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P3">
-        <v>0.8999643350256353</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q3">
-        <v>1.574671013621555</v>
+        <v>2.296087666049889</v>
       </c>
       <c r="R3">
-        <v>14.172039122594</v>
+        <v>20.664788994449</v>
       </c>
       <c r="S3">
-        <v>0.1196577217722281</v>
+        <v>0.1077813909589</v>
       </c>
       <c r="T3">
-        <v>0.1196577217722281</v>
+        <v>0.1077813909589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.211139333333333</v>
+        <v>4.682284333333333</v>
       </c>
       <c r="H4">
-        <v>9.633417999999999</v>
+        <v>14.046853</v>
       </c>
       <c r="I4">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="J4">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.018473</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N4">
-        <v>0.055419</v>
+        <v>0.13253</v>
       </c>
       <c r="O4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q4">
-        <v>0.05931937690466666</v>
+        <v>0.2068477142322222</v>
       </c>
       <c r="R4">
-        <v>0.5338743921419999</v>
+        <v>1.86162942809</v>
       </c>
       <c r="S4">
-        <v>0.00450762186892355</v>
+        <v>0.009709705202577211</v>
       </c>
       <c r="T4">
-        <v>0.004507621868923549</v>
+        <v>0.009709705202577213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.62337166666667</v>
+        <v>4.682284333333333</v>
       </c>
       <c r="H5">
-        <v>52.870115</v>
+        <v>14.046853</v>
       </c>
       <c r="I5">
-        <v>0.7297015703731594</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="J5">
-        <v>0.7297015703731593</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.036035</v>
+        <v>0.08703</v>
       </c>
       <c r="N5">
-        <v>0.108105</v>
+        <v>0.26109</v>
       </c>
       <c r="O5">
-        <v>0.0661331398574747</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P5">
-        <v>0.06613313985747468</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q5">
-        <v>0.6350581980083333</v>
+        <v>0.4074992055299999</v>
       </c>
       <c r="R5">
-        <v>5.715523782075</v>
+        <v>3.667492849769999</v>
       </c>
       <c r="S5">
-        <v>0.04825745600770707</v>
+        <v>0.01912855150789168</v>
       </c>
       <c r="T5">
-        <v>0.04825745600770705</v>
+        <v>0.01912855150789168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>52.870115</v>
       </c>
       <c r="I6">
-        <v>0.7297015703731594</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="J6">
-        <v>0.7297015703731593</v>
+        <v>0.6577126751045781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4903776666666667</v>
+        <v>0.173461</v>
       </c>
       <c r="N6">
-        <v>1.471133</v>
+        <v>0.520383</v>
       </c>
       <c r="O6">
-        <v>0.8999643350256354</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P6">
-        <v>0.8999643350256353</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q6">
-        <v>8.642107876699445</v>
+        <v>3.056967672671667</v>
       </c>
       <c r="R6">
-        <v>77.778970890295</v>
+        <v>27.512709054045</v>
       </c>
       <c r="S6">
-        <v>0.6567053885480424</v>
+        <v>0.1434981045143529</v>
       </c>
       <c r="T6">
-        <v>0.6567053885480422</v>
+        <v>0.143498104514353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,72 +856,72 @@
         <v>52.870115</v>
       </c>
       <c r="I7">
-        <v>0.7297015703731594</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="J7">
-        <v>0.7297015703731593</v>
+        <v>0.6577126751045781</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.018473</v>
+        <v>0.4903776666666667</v>
       </c>
       <c r="N7">
-        <v>0.055419</v>
+        <v>1.471133</v>
       </c>
       <c r="O7">
-        <v>0.03390252511688997</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P7">
-        <v>0.03390252511688997</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q7">
-        <v>0.3255565447983333</v>
+        <v>8.642107876699445</v>
       </c>
       <c r="R7">
-        <v>2.930008903185</v>
+        <v>77.778970890295</v>
       </c>
       <c r="S7">
-        <v>0.02473872581741009</v>
+        <v>0.4056719704304591</v>
       </c>
       <c r="T7">
-        <v>0.02473872581741008</v>
+        <v>0.4056719704304591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.033915</v>
+        <v>17.62337166666667</v>
       </c>
       <c r="H8">
-        <v>0.101745</v>
+        <v>52.870115</v>
       </c>
       <c r="I8">
-        <v>0.00140426186471539</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="J8">
-        <v>0.00140426186471539</v>
+        <v>0.6577126751045781</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.036035</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N8">
-        <v>0.108105</v>
+        <v>0.13253</v>
       </c>
       <c r="O8">
-        <v>0.0661331398574747</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P8">
-        <v>0.06613313985747468</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q8">
-        <v>0.001222127025</v>
+        <v>0.7785418156611112</v>
       </c>
       <c r="R8">
-        <v>0.010999143225</v>
+        <v>7.00687634095</v>
       </c>
       <c r="S8">
-        <v>9.286824629574108E-05</v>
+        <v>0.03654578222441393</v>
       </c>
       <c r="T8">
-        <v>9.286824629574106E-05</v>
+        <v>0.03654578222441393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.033915</v>
+        <v>17.62337166666667</v>
       </c>
       <c r="H9">
-        <v>0.101745</v>
+        <v>52.870115</v>
       </c>
       <c r="I9">
-        <v>0.00140426186471539</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="J9">
-        <v>0.00140426186471539</v>
+        <v>0.6577126751045781</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4903776666666667</v>
+        <v>0.08703</v>
       </c>
       <c r="N9">
-        <v>1.471133</v>
+        <v>0.26109</v>
       </c>
       <c r="O9">
-        <v>0.8999643350256354</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P9">
-        <v>0.8999643350256353</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q9">
-        <v>0.016631158565</v>
+        <v>1.53376203615</v>
       </c>
       <c r="R9">
-        <v>0.149680427085</v>
+        <v>13.80385832535</v>
       </c>
       <c r="S9">
-        <v>0.001263785595280445</v>
+        <v>0.07199681793535224</v>
       </c>
       <c r="T9">
-        <v>0.001263785595280444</v>
+        <v>0.07199681793535224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.033915</v>
+        <v>0.9374000000000001</v>
       </c>
       <c r="H10">
-        <v>0.101745</v>
+        <v>2.8122</v>
       </c>
       <c r="I10">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="J10">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936108</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.018473</v>
+        <v>0.173461</v>
       </c>
       <c r="N10">
-        <v>0.055419</v>
+        <v>0.520383</v>
       </c>
       <c r="O10">
-        <v>0.03390252511688997</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P10">
-        <v>0.03390252511688997</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q10">
-        <v>0.000626511795</v>
+        <v>0.1626023414</v>
       </c>
       <c r="R10">
-        <v>0.005638606155000001</v>
+        <v>1.4634210726</v>
       </c>
       <c r="S10">
-        <v>4.760802313920424E-05</v>
+        <v>0.007632768900072629</v>
       </c>
       <c r="T10">
-        <v>4.760802313920424E-05</v>
+        <v>0.007632768900072629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.167476666666667</v>
+        <v>0.9374000000000001</v>
       </c>
       <c r="H11">
-        <v>9.50243</v>
+        <v>2.8122</v>
       </c>
       <c r="I11">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="J11">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936108</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.036035</v>
+        <v>0.4903776666666667</v>
       </c>
       <c r="N11">
-        <v>0.108105</v>
+        <v>1.471133</v>
       </c>
       <c r="O11">
-        <v>0.0661331398574747</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P11">
-        <v>0.06613313985747468</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q11">
-        <v>0.1141400216833333</v>
+        <v>0.4596800247333334</v>
       </c>
       <c r="R11">
-        <v>1.02726019515</v>
+        <v>4.1371202226</v>
       </c>
       <c r="S11">
-        <v>0.008673389450567979</v>
+        <v>0.02157798815539813</v>
       </c>
       <c r="T11">
-        <v>0.008673389450567975</v>
+        <v>0.02157798815539813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.167476666666667</v>
+        <v>0.9374000000000001</v>
       </c>
       <c r="H12">
-        <v>9.50243</v>
+        <v>2.8122</v>
       </c>
       <c r="I12">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="J12">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936108</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4903776666666667</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N12">
-        <v>1.471133</v>
+        <v>0.13253</v>
       </c>
       <c r="O12">
-        <v>0.8999643350256354</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P12">
-        <v>0.8999643350256353</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q12">
-        <v>1.553259817021111</v>
+        <v>0.04141120733333334</v>
       </c>
       <c r="R12">
-        <v>13.97933835319</v>
+        <v>0.3727008660000001</v>
       </c>
       <c r="S12">
-        <v>0.1180307057266771</v>
+        <v>0.001943896826619289</v>
       </c>
       <c r="T12">
-        <v>0.118030705726677</v>
+        <v>0.001943896826619289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.167476666666667</v>
+        <v>0.9374000000000001</v>
       </c>
       <c r="H13">
-        <v>9.50243</v>
+        <v>2.8122</v>
       </c>
       <c r="I13">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="J13">
-        <v>0.1311504257813894</v>
+        <v>0.03498421716936108</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.018473</v>
+        <v>0.08703</v>
       </c>
       <c r="N13">
-        <v>0.055419</v>
+        <v>0.26109</v>
       </c>
       <c r="O13">
-        <v>0.03390252511688997</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P13">
-        <v>0.03390252511688997</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q13">
-        <v>0.05851279646333334</v>
+        <v>0.081581922</v>
       </c>
       <c r="R13">
-        <v>0.5266151681700001</v>
+        <v>0.734237298</v>
       </c>
       <c r="S13">
-        <v>0.004446330604144367</v>
+        <v>0.003829563287271034</v>
       </c>
       <c r="T13">
-        <v>0.004446330604144366</v>
+        <v>0.003829563287271034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1155756666666667</v>
+        <v>3.238087</v>
       </c>
       <c r="H14">
-        <v>0.346727</v>
+        <v>9.714261</v>
       </c>
       <c r="I14">
-        <v>0.004785448951468603</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="J14">
-        <v>0.004785448951468602</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.036035</v>
+        <v>0.173461</v>
       </c>
       <c r="N14">
-        <v>0.108105</v>
+        <v>0.520383</v>
       </c>
       <c r="O14">
-        <v>0.0661331398574747</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P14">
-        <v>0.06613313985747468</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q14">
-        <v>0.004164769148333333</v>
+        <v>0.5616818091070001</v>
       </c>
       <c r="R14">
-        <v>0.03748292233499999</v>
+        <v>5.055136281963001</v>
       </c>
       <c r="S14">
-        <v>0.0003164767647882788</v>
+        <v>0.02636608678187484</v>
       </c>
       <c r="T14">
-        <v>0.0003164767647882787</v>
+        <v>0.02636608678187485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1155756666666667</v>
+        <v>3.238087</v>
       </c>
       <c r="H15">
-        <v>0.346727</v>
+        <v>9.714261</v>
       </c>
       <c r="I15">
-        <v>0.004785448951468603</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="J15">
-        <v>0.004785448951468602</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>1.471133</v>
       </c>
       <c r="O15">
-        <v>0.8999643350256354</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P15">
-        <v>0.8999643350256353</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q15">
-        <v>0.05667572574344445</v>
+        <v>1.587885547523667</v>
       </c>
       <c r="R15">
-        <v>0.510081531691</v>
+        <v>14.290969927713</v>
       </c>
       <c r="S15">
-        <v>0.004306733383407565</v>
+        <v>0.07453744712198491</v>
       </c>
       <c r="T15">
-        <v>0.004306733383407564</v>
+        <v>0.07453744712198493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1155756666666667</v>
+        <v>3.238087</v>
       </c>
       <c r="H16">
-        <v>0.346727</v>
+        <v>9.714261</v>
       </c>
       <c r="I16">
-        <v>0.004785448951468603</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="J16">
-        <v>0.004785448951468602</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.018473</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N16">
-        <v>0.055419</v>
+        <v>0.13253</v>
       </c>
       <c r="O16">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P16">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q16">
-        <v>0.002135029290333333</v>
+        <v>0.1430478900366667</v>
       </c>
       <c r="R16">
-        <v>0.019215263613</v>
+        <v>1.28743101033</v>
       </c>
       <c r="S16">
-        <v>0.0001622388032727591</v>
+        <v>0.006714857097948766</v>
       </c>
       <c r="T16">
-        <v>0.000162238803272759</v>
+        <v>0.006714857097948767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.238087</v>
+      </c>
+      <c r="H17">
+        <v>9.714261</v>
+      </c>
+      <c r="I17">
+        <v>0.1208469584182685</v>
+      </c>
+      <c r="J17">
+        <v>0.1208469584182685</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08703</v>
+      </c>
+      <c r="N17">
+        <v>0.26109</v>
+      </c>
+      <c r="O17">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="P17">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="Q17">
+        <v>0.28181071161</v>
+      </c>
+      <c r="R17">
+        <v>2.53629640449</v>
+      </c>
+      <c r="S17">
+        <v>0.01322856741645999</v>
+      </c>
+      <c r="T17">
+        <v>0.01322856741646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.313797</v>
+      </c>
+      <c r="H18">
+        <v>0.941391</v>
+      </c>
+      <c r="I18">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="J18">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.173461</v>
+      </c>
+      <c r="N18">
+        <v>0.520383</v>
+      </c>
+      <c r="O18">
+        <v>0.2181774959583017</v>
+      </c>
+      <c r="P18">
+        <v>0.2181774959583018</v>
+      </c>
+      <c r="Q18">
+        <v>0.054431541417</v>
+      </c>
+      <c r="R18">
+        <v>0.489883872753</v>
+      </c>
+      <c r="S18">
+        <v>0.002555088524147739</v>
+      </c>
+      <c r="T18">
+        <v>0.002555088524147739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.313797</v>
+      </c>
+      <c r="H19">
+        <v>0.941391</v>
+      </c>
+      <c r="I19">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="J19">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.471133</v>
+      </c>
+      <c r="O19">
+        <v>0.6167920822963554</v>
+      </c>
+      <c r="P19">
+        <v>0.6167920822963555</v>
+      </c>
+      <c r="Q19">
+        <v>0.153879040667</v>
+      </c>
+      <c r="R19">
+        <v>1.384911366003</v>
+      </c>
+      <c r="S19">
+        <v>0.007223285629613257</v>
+      </c>
+      <c r="T19">
+        <v>0.007223285629613258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.313797</v>
+      </c>
+      <c r="H20">
+        <v>0.941391</v>
+      </c>
+      <c r="I20">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="J20">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04417666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.13253</v>
+      </c>
+      <c r="O20">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="P20">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="Q20">
+        <v>0.01386250547</v>
+      </c>
+      <c r="R20">
+        <v>0.12476254923</v>
+      </c>
+      <c r="S20">
+        <v>0.0006507243359319959</v>
+      </c>
+      <c r="T20">
+        <v>0.000650724335931996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.313797</v>
+      </c>
+      <c r="H21">
+        <v>0.941391</v>
+      </c>
+      <c r="I21">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="J21">
+        <v>0.01171105440056966</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.08703</v>
+      </c>
+      <c r="N21">
+        <v>0.26109</v>
+      </c>
+      <c r="O21">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="P21">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="Q21">
+        <v>0.02730975291</v>
+      </c>
+      <c r="R21">
+        <v>0.24578777619</v>
+      </c>
+      <c r="S21">
+        <v>0.001281955910876668</v>
+      </c>
+      <c r="T21">
+        <v>0.001281955910876668</v>
       </c>
     </row>
   </sheetData>
